--- a/data/data_selection/data_exclude.xlsx
+++ b/data/data_selection/data_exclude.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB33691-65AF-EE4F-9977-3C5699A87A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F6C765-3F9E-A541-B282-0488F526FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Species</t>
   </si>
@@ -54,18 +54,6 @@
   </si>
   <si>
     <t># Make sure that the cell format is text rather than Excel's date format</t>
-  </si>
-  <si>
-    <t>ch4</t>
-  </si>
-  <si>
-    <t>GAGE</t>
-  </si>
-  <si>
-    <t>1990-01-01 00:00</t>
-  </si>
-  <si>
-    <t>1991-01-01 00:00</t>
   </si>
   <si>
     <t># Mole fraction data during the ranges in this worksheet will be excluded</t>
@@ -421,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +423,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -460,20 +448,6 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_selection/data_exclude.xlsx
+++ b/data/data_selection/data_exclude.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F6C765-3F9E-A541-B282-0488F526FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D35935-3203-F44A-8D46-6F9192E9AF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
+    <workbookView xWindow="9740" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
   </bookViews>
   <sheets>
     <sheet name="CGO" sheetId="1" r:id="rId1"/>
+    <sheet name="THD" sheetId="3" r:id="rId2"/>
+    <sheet name="MHD" sheetId="4" r:id="rId3"/>
+    <sheet name="CMN" sheetId="5" r:id="rId4"/>
+    <sheet name="GSN" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Species</t>
   </si>
@@ -57,6 +61,57 @@
   </si>
   <si>
     <t># Mole fraction data during the ranges in this worksheet will be excluded</t>
+  </si>
+  <si>
+    <t>hfc-32</t>
+  </si>
+  <si>
+    <t>GCMS-Medusa</t>
+  </si>
+  <si>
+    <t>2014-03-01 00:00</t>
+  </si>
+  <si>
+    <t>2015-08-31 00:00</t>
+  </si>
+  <si>
+    <t>hfc-125</t>
+  </si>
+  <si>
+    <t>ch2cl2</t>
+  </si>
+  <si>
+    <t>2011-05-01 00:00</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00</t>
+  </si>
+  <si>
+    <t>hfc-236fa</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:00</t>
+  </si>
+  <si>
+    <t>2014-05-01 00:00</t>
+  </si>
+  <si>
+    <t>cfc-114</t>
+  </si>
+  <si>
+    <t>cfc-115</t>
+  </si>
+  <si>
+    <t>2006-01-01 00:00</t>
+  </si>
+  <si>
+    <t>2008-01-01 00:00</t>
+  </si>
+  <si>
+    <t>ch3br</t>
+  </si>
+  <si>
+    <t>2007-12-31 00:00</t>
   </si>
 </sst>
 </file>
@@ -411,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -453,4 +508,301 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0E551D-3078-234D-AE1D-6BA1BE098447}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90822AB9-DFAF-A248-A862-C81247904CD1}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A07B53-7B4A-7F45-9B4A-35A2B2F763FB}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CF8359-ADE1-CD4B-B555-BB6E08340988}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/data_selection/data_exclude.xlsx
+++ b/data/data_selection/data_exclude.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D35935-3203-F44A-8D46-6F9192E9AF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F4852-0053-FA49-BA5C-54A6D9442204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
+    <workbookView xWindow="13320" yWindow="760" windowWidth="16380" windowHeight="17440" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
   </bookViews>
   <sheets>
     <sheet name="CGO" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="MHD" sheetId="4" r:id="rId3"/>
     <sheet name="CMN" sheetId="5" r:id="rId4"/>
     <sheet name="GSN" sheetId="7" r:id="rId5"/>
+    <sheet name="RPB" sheetId="8" r:id="rId6"/>
+    <sheet name="CMO" sheetId="9" r:id="rId7"/>
+    <sheet name="SMO" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,8 +42,93 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3918E8D8-4A2B-934A-99E3-0022B5C6D60E}</author>
+    <author>tc={F3E68455-392F-F741-8504-80A32018F809}</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{3918E8D8-4A2B-934A-99E3-0022B5C6D60E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ray Wang (pers comm., 31/7/23): 
+1), CH4 data from 1990/01/08, 23:09 to 1990/01/17, 17:04 (YYYY/mm/dd, hh:mm).   
+2), CH4 data from 1990/02/03, 08:57 to 1990/02/05, 17:53.
+CONVERTED TO UTC FROM LOCAL TIME</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{F3E68455-392F-F741-8504-80A32018F809}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paul Krummel (pers comm., 31/7/23): point to flag please:
+CGO GAGE CFC-113 1982 09 06 0916 (local time) or 1982 09 05 2316 (UTC time)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={68E0B1FA-3D61-7D4E-AA0C-61BA6FBB6EFA}</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{68E0B1FA-3D61-7D4E-AA0C-61BA6FBB6EFA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ray Wang (pers comm., 31/7/23): Remove all GAGE CH4 data from RPB</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DE6B7291-BF0C-534E-90A9-A6F8A0B76941}</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{DE6B7291-BF0C-534E-90A9-A6F8A0B76941}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ray Wang (pers comm., 31/7/23): Remove all CH4 data in sept and oct 1985 from Oregon</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8B413BAE-155A-FA42-A665-5E3883D6062E}</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{8B413BAE-155A-FA42-A665-5E3883D6062E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ray Wang (pers comm., 31/7/23): remove all N2O after Dec. 1995 (i.e. from 1996/01/01 to the end of GAGE period).</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
   <si>
     <t>Species</t>
   </si>
@@ -112,19 +200,85 @@
   </si>
   <si>
     <t>2007-12-31 00:00</t>
+  </si>
+  <si>
+    <t>ch4</t>
+  </si>
+  <si>
+    <t>GAGE</t>
+  </si>
+  <si>
+    <t>1990-01-08 12:09</t>
+  </si>
+  <si>
+    <t>1990-01-17 06:04</t>
+  </si>
+  <si>
+    <t>1990-02-02 21:57</t>
+  </si>
+  <si>
+    <t>1990-02-05 06:53</t>
+  </si>
+  <si>
+    <t>2050-01-01 00:00</t>
+  </si>
+  <si>
+    <t>1985-09-01 00:00</t>
+  </si>
+  <si>
+    <t>1985-11-01 00:00</t>
+  </si>
+  <si>
+    <t>cfc-113</t>
+  </si>
+  <si>
+    <t>1982-09-05 23:10</t>
+  </si>
+  <si>
+    <t>1982-09-05 23:20</t>
+  </si>
+  <si>
+    <t>n2o</t>
+  </si>
+  <si>
+    <t>1995-12-31 00:00</t>
+  </si>
+  <si>
+    <t>1982-12-28 17:45</t>
+  </si>
+  <si>
+    <t>1982-12-28 18:55</t>
+  </si>
+  <si>
+    <t>1982-10-16 14:40</t>
+  </si>
+  <si>
+    <t>1982-10-16 14:50</t>
+  </si>
+  <si>
+    <t>1982-10-25 14:25</t>
+  </si>
+  <si>
+    <t>1982-10-25 14:35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,6 +319,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Matthew Rigby" id="{C79B773E-2CDD-EE45-BF3C-222859F94A30}" userId="S::chxmr@bristol.ac.uk::ca6cd915-32ac-44b1-8565-a73cfd7038de" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,12 +622,51 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C5" dT="2023-08-01T20:04:11.51" personId="{C79B773E-2CDD-EE45-BF3C-222859F94A30}" id="{3918E8D8-4A2B-934A-99E3-0022B5C6D60E}">
+    <text>Ray Wang (pers comm., 31/7/23): 
+1), CH4 data from 1990/01/08, 23:09 to 1990/01/17, 17:04 (YYYY/mm/dd, hh:mm).   
+2), CH4 data from 1990/02/03, 08:57 to 1990/02/05, 17:53.
+CONVERTED TO UTC FROM LOCAL TIME</text>
+  </threadedComment>
+  <threadedComment ref="C7" dT="2023-08-01T20:08:07.69" personId="{C79B773E-2CDD-EE45-BF3C-222859F94A30}" id="{F3E68455-392F-F741-8504-80A32018F809}">
+    <text>Paul Krummel (pers comm., 31/7/23): point to flag please:
+CGO GAGE CFC-113 1982 09 06 0916 (local time) or 1982 09 05 2316 (UTC time)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C5" dT="2023-08-01T20:03:09.51" personId="{C79B773E-2CDD-EE45-BF3C-222859F94A30}" id="{68E0B1FA-3D61-7D4E-AA0C-61BA6FBB6EFA}">
+    <text>Ray Wang (pers comm., 31/7/23): Remove all GAGE CH4 data from RPB</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C5" dT="2023-08-01T20:03:09.51" personId="{C79B773E-2CDD-EE45-BF3C-222859F94A30}" id="{DE6B7291-BF0C-534E-90A9-A6F8A0B76941}">
+    <text>Ray Wang (pers comm., 31/7/23): Remove all CH4 data in sept and oct 1985 from Oregon</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C5" dT="2023-08-01T20:03:09.51" personId="{C79B773E-2CDD-EE45-BF3C-222859F94A30}" id="{8B413BAE-155A-FA42-A665-5E3883D6062E}">
+    <text>Ray Wang (pers comm., 31/7/23): remove all N2O after Dec. 1995 (i.e. from 1996/01/01 to the end of GAGE period).</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,8 +704,93 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -748,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CF8359-ADE1-CD4B-B555-BB6E08340988}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -805,4 +1089,193 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C5A49-F741-1E4F-BB27-83AC24316318}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE033BAF-C614-704B-A0B4-07A9A9332DE7}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB0D12-A69B-904B-9DE2-C16C61ECB64A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/data_selection/data_exclude.xlsx
+++ b/data/data_selection/data_exclude.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F4852-0053-FA49-BA5C-54A6D9442204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD98894D-B54C-0F4B-82FE-691BA81A2CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="760" windowWidth="16380" windowHeight="17440" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
+    <workbookView xWindow="13320" yWindow="760" windowWidth="16380" windowHeight="17440" activeTab="3" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
   </bookViews>
   <sheets>
     <sheet name="CGO" sheetId="1" r:id="rId1"/>
@@ -266,19 +266,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -665,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -940,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A07B53-7B4A-7F45-9B4A-35A2B2F763FB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/data_selection/data_exclude.xlsx
+++ b/data/data_selection/data_exclude.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD98894D-B54C-0F4B-82FE-691BA81A2CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EE5228-5F9B-8F4B-A29D-AC4DC6285DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="760" windowWidth="16380" windowHeight="17440" activeTab="3" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
+    <workbookView xWindow="6500" yWindow="760" windowWidth="23200" windowHeight="17440" activeTab="1" xr2:uid="{849F44EE-864A-2941-BE9D-07802BBF1516}"/>
   </bookViews>
   <sheets>
-    <sheet name="CGO" sheetId="1" r:id="rId1"/>
-    <sheet name="THD" sheetId="3" r:id="rId2"/>
-    <sheet name="MHD" sheetId="4" r:id="rId3"/>
-    <sheet name="CMN" sheetId="5" r:id="rId4"/>
-    <sheet name="GSN" sheetId="7" r:id="rId5"/>
-    <sheet name="RPB" sheetId="8" r:id="rId6"/>
-    <sheet name="CMO" sheetId="9" r:id="rId7"/>
-    <sheet name="SMO" sheetId="10" r:id="rId8"/>
+    <sheet name="ADR" sheetId="11" r:id="rId1"/>
+    <sheet name="CGO" sheetId="1" r:id="rId2"/>
+    <sheet name="THD" sheetId="3" r:id="rId3"/>
+    <sheet name="MHD" sheetId="4" r:id="rId4"/>
+    <sheet name="CMN" sheetId="5" r:id="rId5"/>
+    <sheet name="GSN" sheetId="7" r:id="rId6"/>
+    <sheet name="RPB" sheetId="8" r:id="rId7"/>
+    <sheet name="CMO" sheetId="9" r:id="rId8"/>
+    <sheet name="SMO" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="372">
   <si>
     <t>Species</t>
   </si>
@@ -260,6 +261,990 @@
   </si>
   <si>
     <t>1982-10-25 14:35</t>
+  </si>
+  <si>
+    <t>cfc-11</t>
+  </si>
+  <si>
+    <t>ALE</t>
+  </si>
+  <si>
+    <t>1979-02-15 17:01</t>
+  </si>
+  <si>
+    <t>1979-11-21 23:02</t>
+  </si>
+  <si>
+    <t>1979-11-22 23:02</t>
+  </si>
+  <si>
+    <t>1980-06-27 23:06</t>
+  </si>
+  <si>
+    <t>1981-05-20 16:19</t>
+  </si>
+  <si>
+    <t>1983-12-24 11:03</t>
+  </si>
+  <si>
+    <t>1979-02-15 23:06</t>
+  </si>
+  <si>
+    <t>1979-11-22 11:06</t>
+  </si>
+  <si>
+    <t>1979-11-22 23:04</t>
+  </si>
+  <si>
+    <t>1980-06-27 23:08</t>
+  </si>
+  <si>
+    <t>1981-05-20 16:21</t>
+  </si>
+  <si>
+    <t>1983-12-24 11:05</t>
+  </si>
+  <si>
+    <t>cfc-12</t>
+  </si>
+  <si>
+    <t>1980-06-02 20:04</t>
+  </si>
+  <si>
+    <t>1981-05-18 10:48</t>
+  </si>
+  <si>
+    <t>1982-05-29 13:46</t>
+  </si>
+  <si>
+    <t>1983-02-25 20:01</t>
+  </si>
+  <si>
+    <t>1983-06-14 13:07</t>
+  </si>
+  <si>
+    <t>1983-07-07 20:02</t>
+  </si>
+  <si>
+    <t>1980-06-02 20:06</t>
+  </si>
+  <si>
+    <t>1981-05-18 10:50</t>
+  </si>
+  <si>
+    <t>1982-05-29 13:48</t>
+  </si>
+  <si>
+    <t>1983-02-25 20:03</t>
+  </si>
+  <si>
+    <t>1983-06-14 13:09</t>
+  </si>
+  <si>
+    <t>1983-07-07 20:04</t>
+  </si>
+  <si>
+    <t>ch3ccl3</t>
+  </si>
+  <si>
+    <t>1978-09-16 16:59</t>
+  </si>
+  <si>
+    <t>1978-12-06 11:03</t>
+  </si>
+  <si>
+    <t>1979-04-27 23:00</t>
+  </si>
+  <si>
+    <t>1979-11-22 16:20</t>
+  </si>
+  <si>
+    <t>1983-12-08 23:02</t>
+  </si>
+  <si>
+    <t>1978-09-16 17:01</t>
+  </si>
+  <si>
+    <t>1978-12-06 11:05</t>
+  </si>
+  <si>
+    <t>1979-04-27 23:02</t>
+  </si>
+  <si>
+    <t>1979-11-22 16:22</t>
+  </si>
+  <si>
+    <t>1983-12-08 23:04</t>
+  </si>
+  <si>
+    <t>ccl4</t>
+  </si>
+  <si>
+    <t>1980-12-05 16:19</t>
+  </si>
+  <si>
+    <t>1981-02-28 11:02</t>
+  </si>
+  <si>
+    <t>1982-03-30 23:00</t>
+  </si>
+  <si>
+    <t>1982-10-16 11:03</t>
+  </si>
+  <si>
+    <t>1983-11-15 16:52</t>
+  </si>
+  <si>
+    <t>1980-12-05 16:58</t>
+  </si>
+  <si>
+    <t>1981-02-28 11:04</t>
+  </si>
+  <si>
+    <t>1982-03-30 23:02</t>
+  </si>
+  <si>
+    <t>1982-10-16 11:05</t>
+  </si>
+  <si>
+    <t>1983-11-15 16:54</t>
+  </si>
+  <si>
+    <t>1978-10-31 15:20</t>
+  </si>
+  <si>
+    <t>1980-05-26 14:11</t>
+  </si>
+  <si>
+    <t>1980-06-06 20:05</t>
+  </si>
+  <si>
+    <t>1981-01-12 14:02</t>
+  </si>
+  <si>
+    <t>1982-03-30 14:04</t>
+  </si>
+  <si>
+    <t>1982-05-26 13:47</t>
+  </si>
+  <si>
+    <t>1982-10-20 14:07</t>
+  </si>
+  <si>
+    <t>1983-05-21 08:06</t>
+  </si>
+  <si>
+    <t>1978-10-31 15:22</t>
+  </si>
+  <si>
+    <t>1980-05-26 14:13</t>
+  </si>
+  <si>
+    <t>1980-06-06 20:07</t>
+  </si>
+  <si>
+    <t>1981-01-12 14:04</t>
+  </si>
+  <si>
+    <t>1982-03-30 14:06</t>
+  </si>
+  <si>
+    <t>1982-05-26 13:49</t>
+  </si>
+  <si>
+    <t>1982-10-20 14:09</t>
+  </si>
+  <si>
+    <t>1983-05-21 08:08</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Flagged by Ray Wang</t>
+  </si>
+  <si>
+    <t>1981-01-01 03:17</t>
+  </si>
+  <si>
+    <t>1981-01-01 03:19</t>
+  </si>
+  <si>
+    <t>1982-10-21 22:32</t>
+  </si>
+  <si>
+    <t>1982-10-21 22:34</t>
+  </si>
+  <si>
+    <t>1980-12-30 21:04</t>
+  </si>
+  <si>
+    <t>1980-12-30 21:06</t>
+  </si>
+  <si>
+    <t>1981-02-19 04:52</t>
+  </si>
+  <si>
+    <t>1981-02-19 04:54</t>
+  </si>
+  <si>
+    <t>1981-07-20 06:39</t>
+  </si>
+  <si>
+    <t>1981-07-20 06:41</t>
+  </si>
+  <si>
+    <t>1981-12-11 05:12</t>
+  </si>
+  <si>
+    <t>1981-12-11 05:14</t>
+  </si>
+  <si>
+    <t>1982-03-01 03:54</t>
+  </si>
+  <si>
+    <t>1982-03-01 03:56</t>
+  </si>
+  <si>
+    <t>1980-02-29 00:35</t>
+  </si>
+  <si>
+    <t>1980-02-29 00:37</t>
+  </si>
+  <si>
+    <t>1981-08-12 01:20</t>
+  </si>
+  <si>
+    <t>1981-08-12 01:22</t>
+  </si>
+  <si>
+    <t>1981-11-11 19:41</t>
+  </si>
+  <si>
+    <t>1981-11-11 19:43</t>
+  </si>
+  <si>
+    <t>1982-02-03 20:01</t>
+  </si>
+  <si>
+    <t>1982-02-03 20:03</t>
+  </si>
+  <si>
+    <t>1982-02-28 00:23</t>
+  </si>
+  <si>
+    <t>1982-02-28 00:25</t>
+  </si>
+  <si>
+    <t>1980-04-08 08:59</t>
+  </si>
+  <si>
+    <t>1980-04-08 09:01</t>
+  </si>
+  <si>
+    <t>1982-08-21 10:27</t>
+  </si>
+  <si>
+    <t>1982-08-21 10:29</t>
+  </si>
+  <si>
+    <t>1984-06-06 21:01</t>
+  </si>
+  <si>
+    <t>1984-06-06 21:03</t>
+  </si>
+  <si>
+    <t>1978-09-27 15:03</t>
+  </si>
+  <si>
+    <t>1978-09-27 20:20</t>
+  </si>
+  <si>
+    <t>1978-09-28 03:01</t>
+  </si>
+  <si>
+    <t>1978-09-28 03:03</t>
+  </si>
+  <si>
+    <t>1978-10-27 09:02</t>
+  </si>
+  <si>
+    <t>1978-10-27 09:04</t>
+  </si>
+  <si>
+    <t>1980-07-17 09:24</t>
+  </si>
+  <si>
+    <t>1980-07-17 10:03</t>
+  </si>
+  <si>
+    <t>1980-12-09 09:59</t>
+  </si>
+  <si>
+    <t>1980-12-09 10:01</t>
+  </si>
+  <si>
+    <t>1981-08-08 22:03</t>
+  </si>
+  <si>
+    <t>1981-08-09 09:22</t>
+  </si>
+  <si>
+    <t>1981-08-09 16:02</t>
+  </si>
+  <si>
+    <t>1981-08-09 22:06</t>
+  </si>
+  <si>
+    <t>1981-08-12 09:59</t>
+  </si>
+  <si>
+    <t>1981-08-12 16:05</t>
+  </si>
+  <si>
+    <t>1982-09-29 16:02</t>
+  </si>
+  <si>
+    <t>1982-09-29 16:04</t>
+  </si>
+  <si>
+    <t>1983-07-17 10:07</t>
+  </si>
+  <si>
+    <t>1983-07-17 10:09</t>
+  </si>
+  <si>
+    <t>1983-08-16 16:02</t>
+  </si>
+  <si>
+    <t>1983-08-17 04:06</t>
+  </si>
+  <si>
+    <t>1983-08-20 16:02</t>
+  </si>
+  <si>
+    <t>1983-08-20 16:04</t>
+  </si>
+  <si>
+    <t>1983-11-02 22:04</t>
+  </si>
+  <si>
+    <t>1983-11-02 22:06</t>
+  </si>
+  <si>
+    <t>1984-07-26 04:04</t>
+  </si>
+  <si>
+    <t>1984-07-26 10:01</t>
+  </si>
+  <si>
+    <t>1984-11-04 22:03</t>
+  </si>
+  <si>
+    <t>1984-11-04 22:05</t>
+  </si>
+  <si>
+    <t>1984-11-05 10:01</t>
+  </si>
+  <si>
+    <t>1984-11-05 10:03</t>
+  </si>
+  <si>
+    <t>1984-11-06 09:23</t>
+  </si>
+  <si>
+    <t>1984-11-06 10:01</t>
+  </si>
+  <si>
+    <t>1985-09-12 09:19</t>
+  </si>
+  <si>
+    <t>1985-09-12 10:00</t>
+  </si>
+  <si>
+    <t>1985-09-13 22:02</t>
+  </si>
+  <si>
+    <t>1985-09-13 22:04</t>
+  </si>
+  <si>
+    <t>1985-09-18 16:02</t>
+  </si>
+  <si>
+    <t>1985-09-19 16:27</t>
+  </si>
+  <si>
+    <t>1985-11-16 04:04</t>
+  </si>
+  <si>
+    <t>1985-11-16 04:06</t>
+  </si>
+  <si>
+    <t>1985-11-16 09:59</t>
+  </si>
+  <si>
+    <t>1985-11-16 22:05</t>
+  </si>
+  <si>
+    <t>1978-09-16 12:41</t>
+  </si>
+  <si>
+    <t>1978-09-16 13:44</t>
+  </si>
+  <si>
+    <t>1979-07-17 10:00</t>
+  </si>
+  <si>
+    <t>1979-07-17 10:02</t>
+  </si>
+  <si>
+    <t>1979-09-03 12:14</t>
+  </si>
+  <si>
+    <t>1979-09-03 12:16</t>
+  </si>
+  <si>
+    <t>1980-07-17 01:08</t>
+  </si>
+  <si>
+    <t>1980-07-17 07:11</t>
+  </si>
+  <si>
+    <t>1980-09-09 13:02</t>
+  </si>
+  <si>
+    <t>1980-09-09 13:04</t>
+  </si>
+  <si>
+    <t>1980-12-06 13:02</t>
+  </si>
+  <si>
+    <t>1980-12-06 13:04</t>
+  </si>
+  <si>
+    <t>1980-12-08 01:04</t>
+  </si>
+  <si>
+    <t>1980-12-08 01:06</t>
+  </si>
+  <si>
+    <t>1980-12-09 13:02</t>
+  </si>
+  <si>
+    <t>1980-12-09 13:04</t>
+  </si>
+  <si>
+    <t>1981-08-09 01:04</t>
+  </si>
+  <si>
+    <t>1981-08-09 19:06</t>
+  </si>
+  <si>
+    <t>1981-08-12 13:03</t>
+  </si>
+  <si>
+    <t>1981-08-12 19:06</t>
+  </si>
+  <si>
+    <t>1981-09-28 13:01</t>
+  </si>
+  <si>
+    <t>1981-09-28 19:05</t>
+  </si>
+  <si>
+    <t>1981-10-15 19:03</t>
+  </si>
+  <si>
+    <t>1981-10-16 01:06</t>
+  </si>
+  <si>
+    <t>1982-08-04 18:59</t>
+  </si>
+  <si>
+    <t>1982-08-04 19:01</t>
+  </si>
+  <si>
+    <t>1982-09-29 13:02</t>
+  </si>
+  <si>
+    <t>1982-09-29 19:05</t>
+  </si>
+  <si>
+    <t>1982-10-18 19:03</t>
+  </si>
+  <si>
+    <t>1982-10-18 19:05</t>
+  </si>
+  <si>
+    <t>1983-07-17 13:11</t>
+  </si>
+  <si>
+    <t>1983-07-17 13:13</t>
+  </si>
+  <si>
+    <t>1983-08-16 19:03</t>
+  </si>
+  <si>
+    <t>1983-08-17 01:06</t>
+  </si>
+  <si>
+    <t>1983-08-20 13:02</t>
+  </si>
+  <si>
+    <t>1983-08-20 19:06</t>
+  </si>
+  <si>
+    <t>1983-09-06 13:02</t>
+  </si>
+  <si>
+    <t>1983-09-06 13:04</t>
+  </si>
+  <si>
+    <t>1983-11-03 01:05</t>
+  </si>
+  <si>
+    <t>1983-11-03 01:07</t>
+  </si>
+  <si>
+    <t>1983-11-03 13:02</t>
+  </si>
+  <si>
+    <t>1983-11-03 19:06</t>
+  </si>
+  <si>
+    <t>1984-07-26 01:05</t>
+  </si>
+  <si>
+    <t>1984-07-26 07:08</t>
+  </si>
+  <si>
+    <t>1984-09-05 13:02</t>
+  </si>
+  <si>
+    <t>1984-09-05 13:04</t>
+  </si>
+  <si>
+    <t>1984-11-04 13:03</t>
+  </si>
+  <si>
+    <t>1984-11-04 13:05</t>
+  </si>
+  <si>
+    <t>1984-11-05 19:06</t>
+  </si>
+  <si>
+    <t>1984-11-06 13:04</t>
+  </si>
+  <si>
+    <t>1985-09-11 19:02</t>
+  </si>
+  <si>
+    <t>1985-09-11 19:04</t>
+  </si>
+  <si>
+    <t>1985-09-18 19:03</t>
+  </si>
+  <si>
+    <t>1985-09-19 13:04</t>
+  </si>
+  <si>
+    <t>1985-11-16 01:04</t>
+  </si>
+  <si>
+    <t>1985-11-16 07:07</t>
+  </si>
+  <si>
+    <t>1985-11-17 01:04</t>
+  </si>
+  <si>
+    <t>1985-11-17 01:06</t>
+  </si>
+  <si>
+    <t>1978-09-26 20:19</t>
+  </si>
+  <si>
+    <t>1978-09-26 20:21</t>
+  </si>
+  <si>
+    <t>1978-09-27 03:02</t>
+  </si>
+  <si>
+    <t>1978-09-27 03:04</t>
+  </si>
+  <si>
+    <t>1978-09-27 20:59</t>
+  </si>
+  <si>
+    <t>1978-09-27 21:01</t>
+  </si>
+  <si>
+    <t>1979-07-17 06:59</t>
+  </si>
+  <si>
+    <t>1979-07-17 07:01</t>
+  </si>
+  <si>
+    <t>1980-07-17 04:08</t>
+  </si>
+  <si>
+    <t>1980-07-17 04:10</t>
+  </si>
+  <si>
+    <t>1980-12-07 22:03</t>
+  </si>
+  <si>
+    <t>1980-12-07 22:05</t>
+  </si>
+  <si>
+    <t>1981-04-23 04:04</t>
+  </si>
+  <si>
+    <t>1981-04-23 04:06</t>
+  </si>
+  <si>
+    <t>1981-08-08 22:05</t>
+  </si>
+  <si>
+    <t>1981-12-07 04:04</t>
+  </si>
+  <si>
+    <t>1981-12-07 04:06</t>
+  </si>
+  <si>
+    <t>1983-08-16 22:03</t>
+  </si>
+  <si>
+    <t>1983-08-20 09:21</t>
+  </si>
+  <si>
+    <t>1983-11-04 00:00</t>
+  </si>
+  <si>
+    <t>1983-11-04 00:02</t>
+  </si>
+  <si>
+    <t>1984-07-29 04:00</t>
+  </si>
+  <si>
+    <t>1984-07-29 04:02</t>
+  </si>
+  <si>
+    <t>1984-09-05 16:02</t>
+  </si>
+  <si>
+    <t>1984-09-05 16:04</t>
+  </si>
+  <si>
+    <t>1984-11-06 16:02</t>
+  </si>
+  <si>
+    <t>1984-11-06 16:04</t>
+  </si>
+  <si>
+    <t>1985-09-12 16:04</t>
+  </si>
+  <si>
+    <t>1985-11-15 09:59</t>
+  </si>
+  <si>
+    <t>1985-11-15 10:01</t>
+  </si>
+  <si>
+    <t>1985-11-15 22:03</t>
+  </si>
+  <si>
+    <t>1985-11-16 10:01</t>
+  </si>
+  <si>
+    <t>1979-09-03 09:12</t>
+  </si>
+  <si>
+    <t>1979-09-03 09:14</t>
+  </si>
+  <si>
+    <t>1980-04-18 20:25</t>
+  </si>
+  <si>
+    <t>1980-04-18 20:27</t>
+  </si>
+  <si>
+    <t>1981-04-04 22:03</t>
+  </si>
+  <si>
+    <t>1981-04-04 22:05</t>
+  </si>
+  <si>
+    <t>1981-12-07 09:58</t>
+  </si>
+  <si>
+    <t>1981-12-07 10:00</t>
+  </si>
+  <si>
+    <t>1982-03-08 09:59</t>
+  </si>
+  <si>
+    <t>1982-03-08 10:01</t>
+  </si>
+  <si>
+    <t>1983-04-03 16:03</t>
+  </si>
+  <si>
+    <t>1983-04-03 16:05</t>
+  </si>
+  <si>
+    <t>1984-07-28 21:45</t>
+  </si>
+  <si>
+    <t>1984-07-28 21:47</t>
+  </si>
+  <si>
+    <t>1984-11-06 09:59</t>
+  </si>
+  <si>
+    <t>1985-09-18 22:03</t>
+  </si>
+  <si>
+    <t>1985-09-18 22:05</t>
+  </si>
+  <si>
+    <t>1979-06-04 08:57</t>
+  </si>
+  <si>
+    <t>1979-06-04 08:59</t>
+  </si>
+  <si>
+    <t>1979-07-11 18:04</t>
+  </si>
+  <si>
+    <t>1979-07-11 18:06</t>
+  </si>
+  <si>
+    <t>1979-10-12 12:00</t>
+  </si>
+  <si>
+    <t>1979-10-12 12:02</t>
+  </si>
+  <si>
+    <t>1980-12-19 19:03</t>
+  </si>
+  <si>
+    <t>1980-12-19 19:05</t>
+  </si>
+  <si>
+    <t>1981-04-09 19:03</t>
+  </si>
+  <si>
+    <t>1981-04-09 19:05</t>
+  </si>
+  <si>
+    <t>1982-05-17 19:04</t>
+  </si>
+  <si>
+    <t>1982-05-17 19:06</t>
+  </si>
+  <si>
+    <t>1984-04-14 06:38</t>
+  </si>
+  <si>
+    <t>1984-04-14 06:40</t>
+  </si>
+  <si>
+    <t>1979-02-06 02:55</t>
+  </si>
+  <si>
+    <t>1979-02-06 02:57</t>
+  </si>
+  <si>
+    <t>1979-02-13 22:50</t>
+  </si>
+  <si>
+    <t>1979-02-13 22:52</t>
+  </si>
+  <si>
+    <t>1979-09-23 02:52</t>
+  </si>
+  <si>
+    <t>1979-09-23 02:54</t>
+  </si>
+  <si>
+    <t>1980-10-06 21:26</t>
+  </si>
+  <si>
+    <t>1980-10-06 21:28</t>
+  </si>
+  <si>
+    <t>1982-05-05 05:59</t>
+  </si>
+  <si>
+    <t>1982-05-05 06:01</t>
+  </si>
+  <si>
+    <t>1983-12-23 20:33</t>
+  </si>
+  <si>
+    <t>1983-12-23 20:35</t>
+  </si>
+  <si>
+    <t>1984-08-27 20:02</t>
+  </si>
+  <si>
+    <t>1984-08-27 20:04</t>
+  </si>
+  <si>
+    <t>1985-01-02 19:34</t>
+  </si>
+  <si>
+    <t>1985-01-02 19:36</t>
+  </si>
+  <si>
+    <t>1985-01-18 06:19</t>
+  </si>
+  <si>
+    <t>1985-01-18 07:22</t>
+  </si>
+  <si>
+    <t>1978-08-07 14:10</t>
+  </si>
+  <si>
+    <t>1978-08-07 15:13</t>
+  </si>
+  <si>
+    <t>1978-12-01 06:05</t>
+  </si>
+  <si>
+    <t>1978-12-01 06:07</t>
+  </si>
+  <si>
+    <t>1981-10-24 09:04</t>
+  </si>
+  <si>
+    <t>1981-10-24 09:06</t>
+  </si>
+  <si>
+    <t>1980-04-13 15:05</t>
+  </si>
+  <si>
+    <t>1980-04-13 15:07</t>
+  </si>
+  <si>
+    <t>1980-11-02 08:47</t>
+  </si>
+  <si>
+    <t>1980-11-02 08:49</t>
+  </si>
+  <si>
+    <t>1983-12-28 21:53</t>
+  </si>
+  <si>
+    <t>1983-12-28 21:55</t>
+  </si>
+  <si>
+    <t>1984-02-13 13:57</t>
+  </si>
+  <si>
+    <t>1984-02-13 13:59</t>
+  </si>
+  <si>
+    <t>1984-02-28 08:26</t>
+  </si>
+  <si>
+    <t>1984-02-28 08:28</t>
+  </si>
+  <si>
+    <t>1980-10-13 20:57</t>
+  </si>
+  <si>
+    <t>1980-10-13 20:59</t>
+  </si>
+  <si>
+    <t>1981-10-12 03:43</t>
+  </si>
+  <si>
+    <t>1981-10-12 03:45</t>
+  </si>
+  <si>
+    <t>1981-10-14 08:19</t>
+  </si>
+  <si>
+    <t>1981-10-14 08:21</t>
+  </si>
+  <si>
+    <t>1981-10-28 07:38</t>
+  </si>
+  <si>
+    <t>1981-10-28 07:40</t>
+  </si>
+  <si>
+    <t>1982-02-24 01:36</t>
+  </si>
+  <si>
+    <t>1982-02-24 01:38</t>
+  </si>
+  <si>
+    <t>1982-03-06 15:46</t>
+  </si>
+  <si>
+    <t>1982-03-06 15:48</t>
+  </si>
+  <si>
+    <t>1982-05-19 15:15</t>
+  </si>
+  <si>
+    <t>1982-05-19 15:17</t>
+  </si>
+  <si>
+    <t>1985-01-18 19:26</t>
+  </si>
+  <si>
+    <t>1985-01-18 19:28</t>
+  </si>
+  <si>
+    <t>1985-01-23 19:29</t>
+  </si>
+  <si>
+    <t>1985-01-23 19:31</t>
+  </si>
+  <si>
+    <t>1979-05-21 16:06</t>
+  </si>
+  <si>
+    <t>1979-05-21 16:08</t>
+  </si>
+  <si>
+    <t>1979-05-24 15:55</t>
+  </si>
+  <si>
+    <t>1979-05-24 15:57</t>
+  </si>
+  <si>
+    <t>1979-07-09 14:53</t>
+  </si>
+  <si>
+    <t>1979-07-09 14:55</t>
+  </si>
+  <si>
+    <t>1980-01-14 14:55</t>
+  </si>
+  <si>
+    <t>1980-01-14 14:57</t>
+  </si>
+  <si>
+    <t>1983-02-22 11:23</t>
+  </si>
+  <si>
+    <t>1983-02-22 11:25</t>
+  </si>
+  <si>
+    <t>1983-05-09 22:26</t>
+  </si>
+  <si>
+    <t>1983-05-09 22:28</t>
+  </si>
+  <si>
+    <t>1983-08-23 04:37</t>
+  </si>
+  <si>
+    <t>1983-08-23 04:39</t>
   </si>
 </sst>
 </file>
@@ -656,11 +1641,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CD4142-14B1-9949-B8BF-A847ADC4127D}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2565-FF09-8844-8E81-909A9E1AB26D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,22 +2235,22 @@
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,8 +2263,11 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -712,7 +2281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -726,7 +2295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -740,7 +2309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -754,7 +2323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -768,7 +2337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -780,6 +2349,567 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +2918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0E551D-3078-234D-AE1D-6BA1BE098447}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -866,7 +2996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90822AB9-DFAF-A248-A862-C81247904CD1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -930,11 +3060,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A07B53-7B4A-7F45-9B4A-35A2B2F763FB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1022,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CF8359-ADE1-CD4B-B555-BB6E08340988}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1085,12 +3215,1923 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C5A49-F741-1E4F-BB27-83AC24316318}">
+  <dimension ref="A1:E95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE033BAF-C614-704B-A0B4-07A9A9332DE7}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB0D12-A69B-904B-9DE2-C16C61ECB64A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,132 +5171,6 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE033BAF-C614-704B-A0B4-07A9A9332DE7}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDB0D12-A69B-904B-9DE2-C16C61ECB64A}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
